--- a/dados2.xlsx
+++ b/dados2.xlsx
@@ -13,12 +13,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="14" uniqueCount="14">
   <si>
     <t>Fabricante</t>
   </si>
   <si>
     <t>Toyota</t>
+  </si>
+  <si>
+    <t>Fiat</t>
   </si>
   <si>
     <t>Modelo</t>
@@ -27,16 +30,31 @@
     <t>Corolla</t>
   </si>
   <si>
+    <t>Uno</t>
+  </si>
+  <si>
     <t>Ano</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
+    <t>2013</t>
+  </si>
+  <si>
     <t>Preco_1</t>
   </si>
   <si>
     <t>Preco_2</t>
+  </si>
+  <si>
+    <t>Cor</t>
+  </si>
+  <si>
+    <t>Prata</t>
+  </si>
+  <si>
+    <t>Branco</t>
   </si>
 </sst>
 </file>
@@ -82,7 +100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -90,9 +108,10 @@
   <cols>
     <col min="1" max="1" width="9.5546875" customWidth="true"/>
     <col min="2" max="2" width="7.33203125" customWidth="true"/>
-    <col min="3" max="3" width="4.21875" customWidth="true"/>
+    <col min="3" max="3" width="5" customWidth="true"/>
     <col min="4" max="4" width="7.6640625" customWidth="true"/>
     <col min="5" max="5" width="7.6640625" customWidth="true"/>
+    <col min="6" max="6" width="5.33203125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -100,16 +119,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -117,16 +139,39 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0">
+        <v>80000</v>
+      </c>
+      <c r="E2" s="0">
+        <v>90000</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0">
-        <v>90000</v>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
       </c>
-      <c r="E2" s="0">
-        <v>100000</v>
+      <c r="D3" s="0">
+        <v>15000</v>
+      </c>
+      <c r="E3" s="0">
+        <v>25000</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
